--- a/遥控器客户端试用结果20131106.xlsx
+++ b/遥控器客户端试用结果20131106.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="150">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,10 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在将按钮发送到用例测试时，工作记录显示发送成功，但用例执行步骤中没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、选择按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,10 +345,6 @@
   <si>
     <t>盒子型号</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习模式时，一个按键是否已经学习、学习成功与否都无法识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>缺少停止运行用例操作，运行用例后，必须等用例运行完，否则无法在录制脚本</t>
@@ -386,10 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>切换遥控器，有时候遥控器所有按键值被清空，点击提示“发送失败,请检查红外模块处于学习状态”，重启应用又好了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前提：两个遥控器均对按键进行过学习操作
 1.切换遥控器
 2.点击已学习的遥控器按键
@@ -474,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除按键就全部删除，无法删除所选中的按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前提：存在多个自定义按键
 1.在自定义按键区域右击鼠标
 2.点击删除按钮
@@ -490,10 +474,6 @@
   </si>
   <si>
     <t>删除选中的按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档中用例的记录时间不明，应用中没有体现出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -575,10 +555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习一个按键，未进行学习操作，之前学习的按键值被清空，但是按键还是显示已学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用例运行失败，无任何提示，最后会提示运行完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,6 +593,50 @@
   </si>
   <si>
     <t>遥控器名称无变化，页面无提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不修改，删除后，新增就是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在将按钮发送到用例测试时，工作记录显示发送成功，但用例执行步骤中没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习模式时，一个按键是否已经学习、学习成功与否都无法识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换遥控器，有时候遥控器所有按键值被清空，点击提示“发送失败,请检查红外模块处于学习状态”，重启应用又好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除按键就全部删除，无法删除所选中的按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档中用例的记录时间不明，应用中没有体现出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习一个按键，未进行学习操作，之前学习的按键值被清空，但是按键还是显示已学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,6 +677,7 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -668,6 +689,7 @@
       <sz val="10"/>
       <color indexed="23"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -686,6 +708,7 @@
       <sz val="10"/>
       <color indexed="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1138,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1161,7 +1184,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="27">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1206,7 +1229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" ht="60">
+    <row r="2" spans="1:16" s="12" customFormat="1" ht="82.5">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -1244,11 +1267,11 @@
       <c r="M2" s="10"/>
       <c r="N2" s="6"/>
       <c r="O2" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" s="13" customFormat="1" ht="36">
+    <row r="3" spans="1:16" s="13" customFormat="1" ht="49.5">
       <c r="A3" s="6" t="s">
         <v>50</v>
       </c>
@@ -1274,7 +1297,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>47</v>
@@ -1283,10 +1306,12 @@
       <c r="L3" s="6"/>
       <c r="M3" s="10"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="14" customFormat="1" ht="24">
+    <row r="4" spans="1:16" s="14" customFormat="1" ht="33">
       <c r="A4" s="6" t="s">
         <v>50</v>
       </c>
@@ -1323,10 +1348,12 @@
       <c r="L4" s="6"/>
       <c r="M4" s="10"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="O4" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" ht="48">
+    <row r="5" spans="1:16" s="13" customFormat="1" ht="66">
       <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
@@ -1363,10 +1390,12 @@
       <c r="L5" s="6"/>
       <c r="M5" s="10"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="O5" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="36">
+    <row r="6" spans="1:16" s="13" customFormat="1" ht="49.5">
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
@@ -1403,10 +1432,12 @@
       <c r="L6" s="6"/>
       <c r="M6" s="10"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="O6" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" s="15" customFormat="1" ht="24">
+    <row r="7" spans="1:16" s="15" customFormat="1" ht="33">
       <c r="A7" s="6" t="s">
         <v>50</v>
       </c>
@@ -1443,9 +1474,11 @@
       <c r="L7" s="6"/>
       <c r="M7" s="10"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" s="15" customFormat="1" ht="24">
+      <c r="O7" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="15" customFormat="1" ht="49.5">
       <c r="A8" s="6" t="s">
         <v>50</v>
       </c>
@@ -1482,9 +1515,11 @@
       <c r="L8" s="6"/>
       <c r="M8" s="10"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" s="15" customFormat="1" ht="36">
+      <c r="O8" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="15" customFormat="1" ht="49.5">
       <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
@@ -1521,9 +1556,11 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:16" s="15" customFormat="1" ht="24">
+      <c r="O9" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="15" customFormat="1" ht="33">
       <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
@@ -1560,9 +1597,11 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" s="15" customFormat="1" ht="24">
+      <c r="O10" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="15" customFormat="1" ht="33">
       <c r="A11" s="6" t="s">
         <v>72</v>
       </c>
@@ -1599,9 +1638,11 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="17"/>
-    </row>
-    <row r="12" spans="1:16" s="15" customFormat="1" ht="36">
+      <c r="O11" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="15" customFormat="1" ht="49.5">
       <c r="A12" s="6" t="s">
         <v>72</v>
       </c>
@@ -1621,26 +1662,26 @@
         <v>51</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:16" s="15" customFormat="1" ht="24">
+    <row r="13" spans="1:16" s="15" customFormat="1" ht="33">
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
@@ -1660,7 +1701,7 @@
         <v>21</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1671,9 +1712,11 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" s="15" customFormat="1" ht="72">
+      <c r="O13" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="15" customFormat="1" ht="99">
       <c r="A14" s="6" t="s">
         <v>50</v>
       </c>
@@ -1681,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>15</v>
@@ -1690,19 +1733,19 @@
         <v>16</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>66</v>
@@ -1712,7 +1755,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:16" s="15" customFormat="1" ht="60">
+    <row r="15" spans="1:16" s="15" customFormat="1" ht="82.5">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -1732,16 +1775,16 @@
         <v>21</v>
       </c>
       <c r="G15" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>66</v>
@@ -1751,7 +1794,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:16" s="15" customFormat="1" ht="48">
+    <row r="16" spans="1:16" s="15" customFormat="1" ht="66">
       <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
@@ -1768,19 +1811,19 @@
         <v>16</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>17</v>
@@ -1790,7 +1833,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" s="15" customFormat="1" ht="24">
+    <row r="17" spans="1:15" s="15" customFormat="1" ht="33">
       <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
@@ -1807,23 +1850,23 @@
         <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" s="15" customFormat="1" ht="60">
+    <row r="18" spans="1:15" s="15" customFormat="1" ht="82.5">
       <c r="A18" s="6" t="s">
         <v>50</v>
       </c>
@@ -1840,29 +1883,29 @@
         <v>16</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" s="15" customFormat="1" ht="60">
+    <row r="19" spans="1:15" s="15" customFormat="1" ht="82.5">
       <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
@@ -1882,26 +1925,26 @@
         <v>21</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" s="15" customFormat="1" ht="24">
+    <row r="20" spans="1:15" s="15" customFormat="1" ht="33">
       <c r="A20" s="6" t="s">
         <v>50</v>
       </c>
@@ -1918,29 +1961,29 @@
         <v>16</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G20" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="K20" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" s="15" customFormat="1" ht="36">
+    <row r="21" spans="1:15" s="15" customFormat="1" ht="49.5">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -1979,7 +2022,7 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:15" s="15" customFormat="1" ht="36">
+    <row r="22" spans="1:15" s="15" customFormat="1" ht="49.5">
       <c r="A22" s="6" t="s">
         <v>50</v>
       </c>
@@ -2018,7 +2061,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" s="15" customFormat="1" ht="36">
+    <row r="23" spans="1:15" s="15" customFormat="1" ht="49.5">
       <c r="A23" s="6" t="s">
         <v>50</v>
       </c>
@@ -2035,10 +2078,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2051,7 +2094,7 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:15" s="15" customFormat="1" ht="24">
+    <row r="24" spans="1:15" s="15" customFormat="1" ht="33">
       <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
@@ -2068,19 +2111,19 @@
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>17</v>
@@ -2090,7 +2133,7 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:15" s="15" customFormat="1" ht="36">
+    <row r="25" spans="1:15" s="15" customFormat="1" ht="49.5">
       <c r="A25" s="6" t="s">
         <v>50</v>
       </c>
@@ -2107,19 +2150,19 @@
         <v>16</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>17</v>
@@ -2129,7 +2172,7 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
     </row>
-    <row r="26" spans="1:15" s="15" customFormat="1" ht="24">
+    <row r="26" spans="1:15" s="15" customFormat="1" ht="33">
       <c r="A26" s="6" t="s">
         <v>50</v>
       </c>
@@ -2137,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>20</v>
@@ -2146,23 +2189,23 @@
         <v>16</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="1:15" s="15" customFormat="1" ht="24">
+    <row r="27" spans="1:15" s="15" customFormat="1" ht="33">
       <c r="A27" s="6" t="s">
         <v>50</v>
       </c>
@@ -2170,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>20</v>
@@ -2179,23 +2222,23 @@
         <v>16</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15" s="15" customFormat="1" ht="36">
+    <row r="28" spans="1:15" s="15" customFormat="1" ht="49.5">
       <c r="A28" s="6" t="s">
         <v>50</v>
       </c>
@@ -2215,26 +2258,26 @@
         <v>21</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:15" s="15" customFormat="1" ht="36">
+    <row r="29" spans="1:15" s="15" customFormat="1" ht="49.5">
       <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
@@ -2251,29 +2294,29 @@
         <v>16</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" s="15" customFormat="1" ht="24">
+    <row r="30" spans="1:15" s="15" customFormat="1" ht="33">
       <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
@@ -2281,32 +2324,32 @@
         <v>1</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" s="15" customFormat="1" ht="24">
+    <row r="31" spans="1:15" s="15" customFormat="1" ht="33">
       <c r="A31" s="6" t="s">
         <v>50</v>
       </c>
@@ -2317,16 +2360,16 @@
         <v>56</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -2339,7 +2382,7 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15" s="15" customFormat="1" ht="48">
+    <row r="32" spans="1:15" s="15" customFormat="1" ht="66">
       <c r="A32" s="6" t="s">
         <v>50</v>
       </c>
@@ -2350,28 +2393,28 @@
         <v>19</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>

--- a/遥控器客户端试用结果20131106.xlsx
+++ b/遥控器客户端试用结果20131106.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="155">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,10 +325,6 @@
   </si>
   <si>
     <t>有时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、选择按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -427,10 +423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遥控器按键值和按键名称可以重复添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日志管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -505,21 +497,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自定义按键未对按钮是否已经学习进行标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>显示一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学习的按键为可用状态，没有学习的为不可用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.新增一个按键，进行按键学习
-2.新增一个按键，不进行按键学习
-3.观察这两个按键的标识状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -612,31 +594,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>学习模式时，一个按键是否已经学习、学习成功与否都无法识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换遥控器，有时候遥控器所有按键值被清空，点击提示“发送失败,请检查红外模块处于学习状态”，重启应用又好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除按键就全部删除，无法删除所选中的按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档中用例的记录时间不明，应用中没有体现出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习一个按键，未进行学习操作，之前学习的按键值被清空，但是按键还是显示已学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为在点击开始学习后，红外模块就处于学习状态了，要退出学习状态有2个条件，1是学习成功，2是30秒超时，如果你没有学习成功就点击了停止学习，然后发送数据，这个时候模块是处于学习状态的，没有办法发送成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改，需要测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义按键未对按钮是否已经学习进行标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新增一个按键，进行按键学习
+2.新增一个按键，不进行按键学习
+3.观察这两个按键的标识状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义按键，必须学习成功后，才能保存，新建后的状态都是可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控器按键值和按键名称可以重复添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>在将按钮发送到用例测试时，工作记录显示发送成功，但用例执行步骤中没有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习模式时，一个按键是否已经学习、学习成功与否都无法识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时不修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换遥控器，有时候遥控器所有按键值被清空，点击提示“发送失败,请检查红外模块处于学习状态”，重启应用又好了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除按键就全部删除，无法删除所选中的按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档中用例的记录时间不明，应用中没有体现出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习一个按键，未进行学习操作，之前学习的按键值被清空，但是按键还是显示已学习</t>
+    <t>1、选择按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意红外模块是否处于学习状态。观察学习指示灯。如果处于学习状态是不能发送成功的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在运行用例的时候不能修改，必须等运行完毕后才能修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +697,6 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -689,7 +708,6 @@
       <sz val="10"/>
       <color indexed="23"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -708,7 +726,6 @@
       <sz val="10"/>
       <color indexed="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1161,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1184,7 +1201,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="27">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1229,7 +1246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" ht="82.5">
+    <row r="2" spans="1:16" s="12" customFormat="1" ht="60">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -1267,11 +1284,11 @@
       <c r="M2" s="10"/>
       <c r="N2" s="6"/>
       <c r="O2" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" s="13" customFormat="1" ht="49.5">
+    <row r="3" spans="1:16" s="13" customFormat="1" ht="36">
       <c r="A3" s="6" t="s">
         <v>50</v>
       </c>
@@ -1297,7 +1314,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>47</v>
@@ -1307,11 +1324,11 @@
       <c r="M3" s="10"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="14" customFormat="1" ht="33">
+    <row r="4" spans="1:16" s="14" customFormat="1" ht="24">
       <c r="A4" s="6" t="s">
         <v>50</v>
       </c>
@@ -1349,11 +1366,11 @@
       <c r="M4" s="10"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" ht="66">
+    <row r="5" spans="1:16" s="13" customFormat="1" ht="48">
       <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
@@ -1391,11 +1408,11 @@
       <c r="M5" s="10"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="49.5">
+    <row r="6" spans="1:16" s="13" customFormat="1" ht="36">
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
@@ -1433,11 +1450,11 @@
       <c r="M6" s="10"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" s="15" customFormat="1" ht="33">
+    <row r="7" spans="1:16" s="15" customFormat="1" ht="24">
       <c r="A7" s="6" t="s">
         <v>50</v>
       </c>
@@ -1475,10 +1492,10 @@
       <c r="M7" s="10"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="15" customFormat="1" ht="49.5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="15" customFormat="1" ht="36">
       <c r="A8" s="6" t="s">
         <v>50</v>
       </c>
@@ -1516,10 +1533,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="15" customFormat="1" ht="49.5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="15" customFormat="1" ht="36">
       <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
@@ -1557,10 +1574,10 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="15" customFormat="1" ht="33">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="15" customFormat="1" ht="24">
       <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
@@ -1598,10 +1615,10 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="15" customFormat="1" ht="33">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="15" customFormat="1" ht="24">
       <c r="A11" s="6" t="s">
         <v>72</v>
       </c>
@@ -1639,10 +1656,10 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="15" customFormat="1" ht="49.5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="15" customFormat="1" ht="36">
       <c r="A12" s="6" t="s">
         <v>72</v>
       </c>
@@ -1662,26 +1679,26 @@
         <v>51</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:16" s="15" customFormat="1" ht="33">
+    <row r="13" spans="1:16" s="15" customFormat="1" ht="24">
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
@@ -1701,7 +1718,7 @@
         <v>21</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1713,10 +1730,10 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="15" customFormat="1" ht="99">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="15" customFormat="1" ht="72">
       <c r="A14" s="6" t="s">
         <v>50</v>
       </c>
@@ -1724,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>15</v>
@@ -1733,19 +1750,19 @@
         <v>16</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="H14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="J14" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>66</v>
@@ -1753,9 +1770,11 @@
       <c r="L14" s="6"/>
       <c r="M14" s="10"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" s="15" customFormat="1" ht="82.5">
+      <c r="O14" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="15" customFormat="1" ht="96">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -1775,16 +1794,16 @@
         <v>21</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>66</v>
@@ -1792,9 +1811,11 @@
       <c r="L15" s="6"/>
       <c r="M15" s="10"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:16" s="15" customFormat="1" ht="66">
+      <c r="O15" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="15" customFormat="1" ht="48">
       <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
@@ -1811,19 +1832,19 @@
         <v>16</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>17</v>
@@ -1833,7 +1854,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" s="15" customFormat="1" ht="33">
+    <row r="17" spans="1:15" s="15" customFormat="1" ht="24">
       <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
@@ -1850,23 +1871,23 @@
         <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" s="15" customFormat="1" ht="82.5">
+    <row r="18" spans="1:15" s="15" customFormat="1" ht="60">
       <c r="A18" s="6" t="s">
         <v>50</v>
       </c>
@@ -1883,29 +1904,29 @@
         <v>16</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" s="15" customFormat="1" ht="82.5">
+    <row r="19" spans="1:15" s="15" customFormat="1" ht="240">
       <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
@@ -1925,26 +1946,28 @@
         <v>21</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:15" s="15" customFormat="1" ht="33">
+      <c r="O19" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="15" customFormat="1" ht="24">
       <c r="A20" s="6" t="s">
         <v>50</v>
       </c>
@@ -1961,29 +1984,31 @@
         <v>16</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="I20" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" s="15" customFormat="1" ht="49.5">
+      <c r="O20" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="15" customFormat="1" ht="36">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2022,7 +2047,7 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:15" s="15" customFormat="1" ht="49.5">
+    <row r="22" spans="1:15" s="15" customFormat="1" ht="36">
       <c r="A22" s="6" t="s">
         <v>50</v>
       </c>
@@ -2061,7 +2086,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" s="15" customFormat="1" ht="49.5">
+    <row r="23" spans="1:15" s="15" customFormat="1" ht="36">
       <c r="A23" s="6" t="s">
         <v>50</v>
       </c>
@@ -2078,10 +2103,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2094,7 +2119,7 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:15" s="15" customFormat="1" ht="33">
+    <row r="24" spans="1:15" s="15" customFormat="1" ht="24">
       <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
@@ -2111,19 +2136,19 @@
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="J24" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>17</v>
@@ -2133,7 +2158,7 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:15" s="15" customFormat="1" ht="49.5">
+    <row r="25" spans="1:15" s="15" customFormat="1" ht="36">
       <c r="A25" s="6" t="s">
         <v>50</v>
       </c>
@@ -2150,19 +2175,19 @@
         <v>16</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="J25" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>17</v>
@@ -2172,7 +2197,7 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
     </row>
-    <row r="26" spans="1:15" s="15" customFormat="1" ht="33">
+    <row r="26" spans="1:15" s="15" customFormat="1" ht="24">
       <c r="A26" s="6" t="s">
         <v>50</v>
       </c>
@@ -2180,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>20</v>
@@ -2189,23 +2214,23 @@
         <v>16</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="1:15" s="15" customFormat="1" ht="33">
+    <row r="27" spans="1:15" s="15" customFormat="1" ht="24">
       <c r="A27" s="6" t="s">
         <v>50</v>
       </c>
@@ -2213,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>20</v>
@@ -2222,23 +2247,23 @@
         <v>16</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15" s="15" customFormat="1" ht="49.5">
+    <row r="28" spans="1:15" s="15" customFormat="1" ht="72">
       <c r="A28" s="6" t="s">
         <v>50</v>
       </c>
@@ -2258,26 +2283,28 @@
         <v>21</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="1:15" s="15" customFormat="1" ht="49.5">
+      <c r="O28" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="15" customFormat="1" ht="36">
       <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
@@ -2294,29 +2321,29 @@
         <v>16</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" s="15" customFormat="1" ht="33">
+    <row r="30" spans="1:15" s="15" customFormat="1" ht="24">
       <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
@@ -2324,32 +2351,32 @@
         <v>1</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" s="15" customFormat="1" ht="33">
+    <row r="31" spans="1:15" s="15" customFormat="1" ht="24">
       <c r="A31" s="6" t="s">
         <v>50</v>
       </c>
@@ -2360,16 +2387,16 @@
         <v>56</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -2382,7 +2409,7 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15" s="15" customFormat="1" ht="66">
+    <row r="32" spans="1:15" s="15" customFormat="1" ht="48">
       <c r="A32" s="6" t="s">
         <v>50</v>
       </c>
@@ -2393,28 +2420,28 @@
         <v>19</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
